--- a/design/DB.xlsx
+++ b/design/DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\JavaScript\MERN\DeliveryApp\deliveryApp\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects workspace\Delivery_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t>int8</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>goods weight</t>
+  </si>
+  <si>
+    <t>status "IDLE" or "Processing"</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>order price</t>
   </si>
 </sst>
 </file>
@@ -731,20 +740,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -758,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
@@ -772,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -784,7 +793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -796,7 +805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -808,7 +817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -820,7 +829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -832,7 +841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
@@ -846,7 +855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -858,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -870,7 +879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -882,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
@@ -896,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -908,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -920,19 +929,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>51</v>
@@ -944,7 +953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -956,7 +965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -970,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
@@ -982,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
@@ -994,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1006,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -1018,7 +1027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>15</v>
@@ -1030,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>13</v>
@@ -1042,7 +1051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1054,7 +1063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1066,7 +1075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -1078,7 +1087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1090,7 +1099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1102,7 +1111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1114,7 +1123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -1126,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -1138,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
         <v>86</v>
@@ -1150,7 +1159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>88</v>
@@ -1162,7 +1171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
         <v>55</v>
@@ -1174,7 +1183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="4" t="s">
         <v>57</v>
@@ -1186,7 +1195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
         <v>59</v>
@@ -1198,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -1210,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -1222,264 +1231,276 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="6" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A39"/>
-    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A18:A40"/>
+    <mergeCell ref="A41:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" location="Sheet1!B2" display="clientID"/>

--- a/design/DB.xlsx
+++ b/design/DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects workspace\Delivery_backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects workspace\Delivery_git\GoDelivery\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t>int8</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>order price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>notification type</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,6 +464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -740,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,158 +1351,182 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="A49" s="10"/>
       <c r="B49" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>75</v>
+      <c r="B50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
+      <c r="A51" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A17"/>

--- a/design/DB.xlsx
+++ b/design/DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects workspace\Delivery_backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Armando\GoDelivery\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
   <si>
     <t>int8</t>
   </si>
@@ -69,15 +69,9 @@
     <t>to location reference building</t>
   </si>
   <si>
-    <t>toLocatoinReferBuilding</t>
-  </si>
-  <si>
     <t>from location reference building</t>
   </si>
   <si>
-    <t>fromLocatoinReferBuilding</t>
-  </si>
-  <si>
     <t>to location</t>
   </si>
   <si>
@@ -307,6 +301,24 @@
   </si>
   <si>
     <t>order price</t>
+  </si>
+  <si>
+    <t>feedback rate</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>canceledBy</t>
+  </si>
+  <si>
+    <t>updated timestamp</t>
+  </si>
+  <si>
+    <t>fromLocationReferBuilding</t>
+  </si>
+  <si>
+    <t>toLocationReferBuilding</t>
   </si>
 </sst>
 </file>
@@ -740,147 +752,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -891,621 +903,711 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="C65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="6" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="6" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A40"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B9" location="Sheet1!B2" display="clientID"/>
-    <hyperlink ref="B19" location="Sheet1!B2" display="sender"/>
-    <hyperlink ref="B20" location="Sheet1!B2" display="receiver"/>
+    <hyperlink ref="B10" location="Sheet1!B2" display="clientID"/>
+    <hyperlink ref="B23" location="Sheet1!B2" display="sender"/>
+    <hyperlink ref="B24" location="Sheet1!B2" display="receiver"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/design/DB.xlsx
+++ b/design/DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
   <si>
     <t>int8</t>
   </si>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,6 +452,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -747,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +778,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -801,7 +804,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -813,7 +816,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -825,7 +828,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -837,7 +840,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -849,7 +852,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -863,7 +866,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -875,7 +878,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
@@ -887,7 +890,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -913,7 +916,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -925,7 +928,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -937,7 +940,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -949,7 +952,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -961,7 +964,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -973,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -987,7 +990,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -999,7 +1002,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +1014,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1026,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1038,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1050,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1071,7 +1074,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
@@ -1083,7 +1086,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
@@ -1095,7 +1098,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
@@ -1107,7 +1110,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
@@ -1119,7 +1122,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1131,7 +1134,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1146,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1158,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4" t="s">
         <v>86</v>
       </c>
@@ -1167,7 +1170,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
@@ -1179,7 +1182,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
@@ -1191,7 +1194,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
@@ -1203,7 +1206,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
@@ -1215,7 +1218,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1230,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
@@ -1251,7 +1254,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1265,7 +1268,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1277,7 +1280,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
         <v>76</v>
       </c>
@@ -1289,7 +1292,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1304,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -1313,7 +1316,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1327,7 +1330,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1342,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
@@ -1351,7 +1354,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="2" t="s">
         <v>74</v>
       </c>
@@ -1363,170 +1366,182 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="6" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="6" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A57:A63"/>
     <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A17"/>

--- a/design/DB.xlsx
+++ b/design/DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects workspace\Delivery_git\GoDelivery\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Armando\GoDelivery\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>int8</t>
   </si>
@@ -314,12 +314,30 @@
   <si>
     <t>notification type</t>
   </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>last location of delivery man</t>
+  </si>
+  <si>
+    <t>locationLatitude</t>
+  </si>
+  <si>
+    <t>locationLongitude</t>
+  </si>
+  <si>
+    <t>fcmToken</t>
+  </si>
+  <si>
+    <t>fcm token</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +376,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -372,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -432,13 +458,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,9 +487,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -467,7 +500,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -750,20 +790,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -777,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -791,7 +831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -803,7 +843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -815,7 +855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -827,7 +867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -839,572 +879,570 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
+      <c r="B19" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
+      <c r="B20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
       <c r="B46" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="D51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
@@ -1412,146 +1450,220 @@
         <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="2" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="6" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A40"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A44"/>
+    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B9" location="Sheet1!B2" display="clientID"/>
-    <hyperlink ref="B19" location="Sheet1!B2" display="sender"/>
-    <hyperlink ref="B20" location="Sheet1!B2" display="receiver"/>
+    <hyperlink ref="B10" location="Sheet1!B2" display="clientID"/>
+    <hyperlink ref="B23" location="Sheet1!B2" display="sender"/>
+    <hyperlink ref="B24" location="Sheet1!B2" display="receiver"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/design/DB.xlsx
+++ b/design/DB.xlsx
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
